--- a/src/main/resources/csv/spellBoss.xlsx
+++ b/src/main/resources/csv/spellBoss.xlsx
@@ -54,8 +54,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -68,8 +68,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,16 +174,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,113 +190,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,13 +221,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,13 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,151 +377,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +412,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,11 +448,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,17 +478,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,15 +504,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -518,10 +518,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,10 +530,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,121 +542,121 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -984,7 +984,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>

--- a/src/main/resources/csv/spellBoss.xlsx
+++ b/src/main/resources/csv/spellBoss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20448" windowHeight="8484"/>
+    <workbookView windowWidth="14364" windowHeight="9647"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,8 +55,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -68,17 +68,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,26 +98,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -120,6 +134,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -128,25 +156,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,6 +172,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -166,47 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,25 +221,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,25 +371,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,127 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,8 +418,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,6 +429,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,41 +493,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,10 +518,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,133 +530,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -984,7 +984,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1020,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1043,13 +1043,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1089,10 +1089,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/csv/spellBoss.xlsx
+++ b/src/main/resources/csv/spellBoss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14364" windowHeight="9647"/>
+    <workbookView windowWidth="14364" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -76,6 +76,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -83,7 +98,107 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,121 +211,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -227,181 +227,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +412,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -428,22 +443,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,21 +459,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,7 +482,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,151 +497,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -984,7 +984,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1046,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>200</v>
